--- a/doc/data/temp-sensor-data.xlsx
+++ b/doc/data/temp-sensor-data.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\repos\yoshimoshi\neoteric\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\repos\yoshimoshi\neoteric\doc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="13995" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="13995" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Mopar Style" sheetId="1" r:id="rId1"/>
     <sheet name="GM Style" sheetId="2" r:id="rId2"/>
     <sheet name="Resistor Check" sheetId="3" r:id="rId3"/>
     <sheet name="Math Check" sheetId="5" r:id="rId4"/>
+    <sheet name="Low Value" sheetId="7" r:id="rId5"/>
+    <sheet name="GM Profile with Meadow" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>temp</t>
   </si>
@@ -75,6 +77,27 @@
   </si>
   <si>
     <t>recorded temp</t>
+  </si>
+  <si>
+    <t>Model Values</t>
+  </si>
+  <si>
+    <t>Resistance</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>Ohms</t>
+  </si>
+  <si>
+    <t>&lt;Profiled with a Meadow and a 330 ohm resistor&gt;</t>
+  </si>
+  <si>
+    <t>Profiled with an ohm meter</t>
+  </si>
+  <si>
+    <t>profiled with an ohm meter</t>
   </si>
 </sst>
 </file>
@@ -186,7 +209,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mopar Style'!$C$2</c:f>
+              <c:f>'Mopar Style'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -269,7 +292,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Mopar Style'!$B$3:$B$22</c:f>
+              <c:f>'Mopar Style'!$B$4:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -338,7 +361,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Mopar Style'!$C$3:$C$22</c:f>
+              <c:f>'Mopar Style'!$C$4:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -415,11 +438,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="488697768"/>
-        <c:axId val="488701688"/>
+        <c:axId val="216603944"/>
+        <c:axId val="216603160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="488697768"/>
+        <c:axId val="216603944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -477,12 +500,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488701688"/>
+        <c:crossAx val="216603160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="488701688"/>
+        <c:axId val="216603160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="110"/>
@@ -540,7 +563,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488697768"/>
+        <c:crossAx val="216603944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -645,7 +668,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'GM Style'!$C$2</c:f>
+              <c:f>'GM Style'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -728,7 +751,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'GM Style'!$B$3:$B$37</c:f>
+              <c:f>'GM Style'!$B$4:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -842,7 +865,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'GM Style'!$C$3:$C$37</c:f>
+              <c:f>'GM Style'!$C$4:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -964,11 +987,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="555495976"/>
-        <c:axId val="555497936"/>
+        <c:axId val="216603552"/>
+        <c:axId val="590242184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="555495976"/>
+        <c:axId val="216603552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -1082,12 +1105,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555497936"/>
+        <c:crossAx val="590242184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="555497936"/>
+        <c:axId val="590242184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="220"/>
@@ -1202,7 +1225,1234 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555495976"/>
+        <c:crossAx val="216603552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Low Value'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Low Value'!$A$3:$A$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Low Value'!$B$3:$B$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>224.33323397870168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>206.55523186450495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>193.74166424712368</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>183.86455221516911</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>175.90746894529684</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>169.29361976778398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>163.66650825606132</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>158.79156070830336</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>154.50684223111611</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150.69623417676146</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>147.2738618538684</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>144.17457206541874</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>141.34785617210599</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>138.75383080530958</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>136.3604974315551</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>134.14182428261157</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>132.07637290889306</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>130.14629481047797</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128.33658530136299</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>126.6345198041457</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>125.02922187287641</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>123.51132788489602</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>122.07272371933453</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120.70633576000174</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>119.40596339494896</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>118.16614356898451</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>116.98204034959873</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>115.84935419834309</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>114.76424690268611</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>113.72327905538816</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>112.7233576637055</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>111.76169199464638</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>110.83575616103153</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>109.94325725893061</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>109.08210810367768</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>108.25040379617971</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>107.44640149616265</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>106.66850289361844</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>105.9152389609591</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>105.18525664146236</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>104.47730718846384</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>103.79023591744222</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>103.12297317197724</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>102.47452633634293</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>101.84397275363129</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>101.2304534298889</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>100.63316742265778</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>100.05136682722824</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>99.484352286389679</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>98.931468959938599</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>98.392102899026952</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>97.865677777896948</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>97.351651941876327</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>96.849515735896034</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>96.358789082389222</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>95.879019281369025</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>95.409779008863211</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>94.950664492792782</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="595436960"/>
+        <c:axId val="595438528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="595436960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Resistance (Ohms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="595438528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="595438528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature (F)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="595436960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.1649168853893265E-3"/>
+                  <c:y val="-0.18065179352580926"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'GM Profile with Meadow'!$A$3:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>710</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'GM Profile with Meadow'!$B$3:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>135</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="417754656"/>
+        <c:axId val="417755048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="417754656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="140"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417755048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="417755048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417754656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1331,6 +2581,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2363,19 +3693,1051 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2404,14 +4766,84 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2696,184 +5128,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>177</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>175</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>185</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>188</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>198</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>209</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>211</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>214</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>236</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>239</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>249</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>267</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>290</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>316</v>
-      </c>
-      <c r="C16">
-        <v>150</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="C17">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="C18">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="C19">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>454</v>
+        <v>410</v>
       </c>
       <c r="C20">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>493</v>
+        <v>454</v>
       </c>
       <c r="C21">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22">
+        <v>493</v>
+      </c>
+      <c r="C22">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>532</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>120</v>
       </c>
     </row>
@@ -2888,304 +5323,307 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C36"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>650</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>600</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>550</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>500</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>450</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>429</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>410</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>390</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>370</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>355</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>347</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>343</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>334</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>325</v>
-      </c>
-      <c r="C16">
-        <v>179</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C17">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="C18">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C19">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C20">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C21">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C22">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C23">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C24">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C25">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C26">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="C27">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="C28">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C29">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="C30">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C31">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="C32">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="C33">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="C34">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="C35">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="C36">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37">
+        <v>186</v>
+      </c>
+      <c r="C37">
         <v>210</v>
       </c>
-      <c r="C37">
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>210</v>
+      </c>
+      <c r="C38">
         <v>205</v>
       </c>
     </row>
@@ -3263,7 +5701,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>'GM Style'!B3</f>
+        <f>'GM Style'!B4</f>
         <v>650</v>
       </c>
       <c r="B7">
@@ -3271,7 +5709,7 @@
         <v>2.1887755102040813</v>
       </c>
       <c r="D7">
-        <f>'Mopar Style'!B3</f>
+        <f>'Mopar Style'!B4</f>
         <v>177</v>
       </c>
       <c r="E7">
@@ -3281,7 +5719,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>'GM Style'!B4</f>
+        <f>'GM Style'!B5</f>
         <v>600</v>
       </c>
       <c r="B8">
@@ -3289,7 +5727,7 @@
         <v>2.129032258064516</v>
       </c>
       <c r="D8">
-        <f>'Mopar Style'!B4</f>
+        <f>'Mopar Style'!B5</f>
         <v>175</v>
       </c>
       <c r="E8">
@@ -3299,7 +5737,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>'GM Style'!B5</f>
+        <f>'GM Style'!B6</f>
         <v>550</v>
       </c>
       <c r="B9">
@@ -3307,7 +5745,7 @@
         <v>2.0625</v>
       </c>
       <c r="D9">
-        <f>'Mopar Style'!B5</f>
+        <f>'Mopar Style'!B6</f>
         <v>185</v>
       </c>
       <c r="E9">
@@ -3317,7 +5755,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>'GM Style'!B6</f>
+        <f>'GM Style'!B7</f>
         <v>500</v>
       </c>
       <c r="B10">
@@ -3325,7 +5763,7 @@
         <v>1.9879518072289157</v>
       </c>
       <c r="D10">
-        <f>'Mopar Style'!B6</f>
+        <f>'Mopar Style'!B7</f>
         <v>188</v>
       </c>
       <c r="E10">
@@ -3335,7 +5773,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>'GM Style'!B7</f>
+        <f>'GM Style'!B8</f>
         <v>450</v>
       </c>
       <c r="B11">
@@ -3343,7 +5781,7 @@
         <v>1.9038461538461535</v>
       </c>
       <c r="D11">
-        <f>'Mopar Style'!B7</f>
+        <f>'Mopar Style'!B8</f>
         <v>198</v>
       </c>
       <c r="E11">
@@ -3353,7 +5791,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>'GM Style'!B8</f>
+        <f>'GM Style'!B9</f>
         <v>429</v>
       </c>
       <c r="B12">
@@ -3361,7 +5799,7 @@
         <v>1.8652173913043475</v>
       </c>
       <c r="D12">
-        <f>'Mopar Style'!B8</f>
+        <f>'Mopar Style'!B9</f>
         <v>209</v>
       </c>
       <c r="E12">
@@ -3371,7 +5809,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>'GM Style'!B9</f>
+        <f>'GM Style'!B10</f>
         <v>410</v>
       </c>
       <c r="B13">
@@ -3379,7 +5817,7 @@
         <v>1.8283783783783782</v>
       </c>
       <c r="D13">
-        <f>'Mopar Style'!B9</f>
+        <f>'Mopar Style'!B10</f>
         <v>211</v>
       </c>
       <c r="E13">
@@ -3389,7 +5827,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>'GM Style'!B10</f>
+        <f>'GM Style'!B11</f>
         <v>390</v>
       </c>
       <c r="B14">
@@ -3397,7 +5835,7 @@
         <v>1.7874999999999999</v>
       </c>
       <c r="D14">
-        <f>'Mopar Style'!B10</f>
+        <f>'Mopar Style'!B11</f>
         <v>214</v>
       </c>
       <c r="E14">
@@ -3407,7 +5845,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>'GM Style'!B11</f>
+        <f>'GM Style'!B12</f>
         <v>370</v>
       </c>
       <c r="B15">
@@ -3415,7 +5853,7 @@
         <v>1.7442857142857142</v>
       </c>
       <c r="D15">
-        <f>'Mopar Style'!B11</f>
+        <f>'Mopar Style'!B12</f>
         <v>236</v>
       </c>
       <c r="E15">
@@ -3425,7 +5863,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>'GM Style'!B12</f>
+        <f>'GM Style'!B13</f>
         <v>355</v>
       </c>
       <c r="B16">
@@ -3433,7 +5871,7 @@
         <v>1.7102189781021897</v>
       </c>
       <c r="D16">
-        <f>'Mopar Style'!B12</f>
+        <f>'Mopar Style'!B13</f>
         <v>239</v>
       </c>
       <c r="E16">
@@ -3443,7 +5881,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f>'GM Style'!B13</f>
+        <f>'GM Style'!B14</f>
         <v>347</v>
       </c>
       <c r="B17">
@@ -3451,7 +5889,7 @@
         <v>1.6914327917282126</v>
       </c>
       <c r="D17">
-        <f>'Mopar Style'!B13</f>
+        <f>'Mopar Style'!B14</f>
         <v>249</v>
       </c>
       <c r="E17">
@@ -3461,7 +5899,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f>'GM Style'!B14</f>
+        <f>'GM Style'!B15</f>
         <v>343</v>
       </c>
       <c r="B18">
@@ -3469,7 +5907,7 @@
         <v>1.6818722139673103</v>
       </c>
       <c r="D18">
-        <f>'Mopar Style'!B14</f>
+        <f>'Mopar Style'!B15</f>
         <v>267</v>
       </c>
       <c r="E18">
@@ -3479,7 +5917,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f>'GM Style'!B15</f>
+        <f>'GM Style'!B16</f>
         <v>334</v>
       </c>
       <c r="B19">
@@ -3487,7 +5925,7 @@
         <v>1.6599397590361447</v>
       </c>
       <c r="D19">
-        <f>'Mopar Style'!B15</f>
+        <f>'Mopar Style'!B16</f>
         <v>290</v>
       </c>
       <c r="E19">
@@ -3497,7 +5935,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f>'GM Style'!B16</f>
+        <f>'GM Style'!B17</f>
         <v>325</v>
       </c>
       <c r="B20">
@@ -3505,7 +5943,7 @@
         <v>1.6374045801526715</v>
       </c>
       <c r="D20">
-        <f>'Mopar Style'!B16</f>
+        <f>'Mopar Style'!B17</f>
         <v>316</v>
       </c>
       <c r="E20">
@@ -3515,7 +5953,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f>'GM Style'!B17</f>
+        <f>'GM Style'!B18</f>
         <v>320</v>
       </c>
       <c r="B21">
@@ -3523,7 +5961,7 @@
         <v>1.6246153846153846</v>
       </c>
       <c r="D21">
-        <f>'Mopar Style'!B17</f>
+        <f>'Mopar Style'!B18</f>
         <v>343</v>
       </c>
       <c r="E21">
@@ -3533,7 +5971,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f>'GM Style'!B18</f>
+        <f>'GM Style'!B19</f>
         <v>309</v>
       </c>
       <c r="B22">
@@ -3541,7 +5979,7 @@
         <v>1.5957746478873238</v>
       </c>
       <c r="D22">
-        <f>'Mopar Style'!B18</f>
+        <f>'Mopar Style'!B19</f>
         <v>375</v>
       </c>
       <c r="E22">
@@ -3551,7 +5989,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f>'GM Style'!B19</f>
+        <f>'GM Style'!B20</f>
         <v>307</v>
       </c>
       <c r="B23">
@@ -3559,7 +5997,7 @@
         <v>1.5904238618524331</v>
       </c>
       <c r="D23">
-        <f>'Mopar Style'!B19</f>
+        <f>'Mopar Style'!B20</f>
         <v>410</v>
       </c>
       <c r="E23">
@@ -3569,7 +6007,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f>'GM Style'!B20</f>
+        <f>'GM Style'!B21</f>
         <v>302</v>
       </c>
       <c r="B24">
@@ -3577,7 +6015,7 @@
         <v>1.5768987341772152</v>
       </c>
       <c r="D24">
-        <f>'Mopar Style'!B20</f>
+        <f>'Mopar Style'!B21</f>
         <v>454</v>
       </c>
       <c r="E24">
@@ -3587,7 +6025,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f>'GM Style'!B21</f>
+        <f>'GM Style'!B22</f>
         <v>294</v>
       </c>
       <c r="B25">
@@ -3595,7 +6033,7 @@
         <v>1.5548076923076921</v>
       </c>
       <c r="D25">
-        <f>'Mopar Style'!B21</f>
+        <f>'Mopar Style'!B22</f>
         <v>493</v>
       </c>
       <c r="E25">
@@ -3605,7 +6043,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f>'GM Style'!B22</f>
+        <f>'GM Style'!B23</f>
         <v>292</v>
       </c>
       <c r="B26">
@@ -3613,7 +6051,7 @@
         <v>1.5491961414790998</v>
       </c>
       <c r="D26">
-        <f>'Mopar Style'!B22</f>
+        <f>'Mopar Style'!B23</f>
         <v>532</v>
       </c>
       <c r="E26">
@@ -3623,7 +6061,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f>'GM Style'!B23</f>
+        <f>'GM Style'!B24</f>
         <v>290</v>
       </c>
       <c r="B27">
@@ -3633,7 +6071,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f>'GM Style'!B24</f>
+        <f>'GM Style'!B25</f>
         <v>280</v>
       </c>
       <c r="B28">
@@ -3643,7 +6081,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f>'GM Style'!B25</f>
+        <f>'GM Style'!B26</f>
         <v>274</v>
       </c>
       <c r="B29">
@@ -3653,7 +6091,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f>'GM Style'!B26</f>
+        <f>'GM Style'!B27</f>
         <v>269</v>
       </c>
       <c r="B30">
@@ -3663,7 +6101,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f>'GM Style'!B27</f>
+        <f>'GM Style'!B28</f>
         <v>253</v>
       </c>
       <c r="B31">
@@ -3673,7 +6111,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f>'GM Style'!B28</f>
+        <f>'GM Style'!B29</f>
         <v>203</v>
       </c>
       <c r="B32">
@@ -3683,7 +6121,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f>'GM Style'!B29</f>
+        <f>'GM Style'!B30</f>
         <v>216</v>
       </c>
       <c r="B33">
@@ -3693,7 +6131,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f>'GM Style'!B30</f>
+        <f>'GM Style'!B31</f>
         <v>233</v>
       </c>
       <c r="B34">
@@ -3703,7 +6141,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f>'GM Style'!B31</f>
+        <f>'GM Style'!B32</f>
         <v>238</v>
       </c>
       <c r="B35">
@@ -3713,7 +6151,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f>'GM Style'!B32</f>
+        <f>'GM Style'!B33</f>
         <v>263</v>
       </c>
       <c r="B36">
@@ -3723,7 +6161,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f>'GM Style'!B33</f>
+        <f>'GM Style'!B34</f>
         <v>240</v>
       </c>
       <c r="B37">
@@ -3733,7 +6171,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f>'GM Style'!B34</f>
+        <f>'GM Style'!B35</f>
         <v>223</v>
       </c>
       <c r="B38">
@@ -3743,7 +6181,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f>'GM Style'!B35</f>
+        <f>'GM Style'!B36</f>
         <v>204</v>
       </c>
       <c r="B39">
@@ -3753,7 +6191,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f>'GM Style'!B36</f>
+        <f>'GM Style'!B37</f>
         <v>186</v>
       </c>
       <c r="B40">
@@ -3763,7 +6201,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f>'GM Style'!B37</f>
+        <f>'GM Style'!B38</f>
         <v>210</v>
       </c>
       <c r="B41">
@@ -3820,11 +6258,11 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>'GM Style'!B3</f>
+        <f>'GM Style'!B4</f>
         <v>650</v>
       </c>
       <c r="B6">
-        <f>'GM Style'!C3</f>
+        <f>'GM Style'!C4</f>
         <v>145</v>
       </c>
       <c r="C6">
@@ -3836,7 +6274,7 @@
         <v>651.08108108108104</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E41" si="0">945*POWER(D6, -0.287)</f>
+        <f t="shared" ref="E6:E40" si="0">945*POWER(D6, -0.287)</f>
         <v>147.20363745823019</v>
       </c>
       <c r="F6">
@@ -3846,11 +6284,11 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>'GM Style'!B4</f>
+        <f>'GM Style'!B5</f>
         <v>600</v>
       </c>
       <c r="B7">
-        <f>'GM Style'!C4</f>
+        <f>'GM Style'!C5</f>
         <v>150</v>
       </c>
       <c r="C7">
@@ -3872,11 +6310,11 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>'GM Style'!B5</f>
+        <f>'GM Style'!B6</f>
         <v>550</v>
       </c>
       <c r="B8">
-        <f>'GM Style'!C5</f>
+        <f>'GM Style'!C6</f>
         <v>155</v>
       </c>
       <c r="C8">
@@ -3898,11 +6336,11 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>'GM Style'!B6</f>
+        <f>'GM Style'!B7</f>
         <v>500</v>
       </c>
       <c r="B9">
-        <f>'GM Style'!C6</f>
+        <f>'GM Style'!C7</f>
         <v>160</v>
       </c>
       <c r="C9">
@@ -3924,11 +6362,11 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>'GM Style'!B7</f>
+        <f>'GM Style'!B8</f>
         <v>450</v>
       </c>
       <c r="B10">
-        <f>'GM Style'!C7</f>
+        <f>'GM Style'!C8</f>
         <v>165</v>
       </c>
       <c r="C10">
@@ -3950,11 +6388,11 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>'GM Style'!B8</f>
+        <f>'GM Style'!B9</f>
         <v>429</v>
       </c>
       <c r="B11">
-        <f>'GM Style'!C8</f>
+        <f>'GM Style'!C9</f>
         <v>166</v>
       </c>
       <c r="C11">
@@ -3976,11 +6414,11 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>'GM Style'!B9</f>
+        <f>'GM Style'!B10</f>
         <v>410</v>
       </c>
       <c r="B12">
-        <f>'GM Style'!C9</f>
+        <f>'GM Style'!C10</f>
         <v>168</v>
       </c>
       <c r="C12">
@@ -4002,11 +6440,11 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>'GM Style'!B10</f>
+        <f>'GM Style'!B11</f>
         <v>390</v>
       </c>
       <c r="B13">
-        <f>'GM Style'!C10</f>
+        <f>'GM Style'!C11</f>
         <v>170</v>
       </c>
       <c r="C13">
@@ -4028,11 +6466,11 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>'GM Style'!B11</f>
+        <f>'GM Style'!B12</f>
         <v>370</v>
       </c>
       <c r="B14">
-        <f>'GM Style'!C11</f>
+        <f>'GM Style'!C12</f>
         <v>172</v>
       </c>
       <c r="C14">
@@ -4054,11 +6492,11 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>'GM Style'!B12</f>
+        <f>'GM Style'!B13</f>
         <v>355</v>
       </c>
       <c r="B15">
-        <f>'GM Style'!C12</f>
+        <f>'GM Style'!C13</f>
         <v>174</v>
       </c>
       <c r="C15">
@@ -4080,11 +6518,11 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>'GM Style'!B13</f>
+        <f>'GM Style'!B14</f>
         <v>347</v>
       </c>
       <c r="B16">
-        <f>'GM Style'!C13</f>
+        <f>'GM Style'!C14</f>
         <v>175</v>
       </c>
       <c r="C16">
@@ -4106,11 +6544,11 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f>'GM Style'!B14</f>
+        <f>'GM Style'!B15</f>
         <v>343</v>
       </c>
       <c r="B17">
-        <f>'GM Style'!C14</f>
+        <f>'GM Style'!C15</f>
         <v>176</v>
       </c>
       <c r="C17">
@@ -4132,11 +6570,11 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f>'GM Style'!B15</f>
+        <f>'GM Style'!B16</f>
         <v>334</v>
       </c>
       <c r="B18">
-        <f>'GM Style'!C15</f>
+        <f>'GM Style'!C16</f>
         <v>178</v>
       </c>
       <c r="C18">
@@ -4158,11 +6596,11 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f>'GM Style'!B16</f>
+        <f>'GM Style'!B17</f>
         <v>325</v>
       </c>
       <c r="B19">
-        <f>'GM Style'!C16</f>
+        <f>'GM Style'!C17</f>
         <v>179</v>
       </c>
       <c r="C19">
@@ -4184,11 +6622,11 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f>'GM Style'!B17</f>
+        <f>'GM Style'!B18</f>
         <v>320</v>
       </c>
       <c r="B20">
-        <f>'GM Style'!C17</f>
+        <f>'GM Style'!C18</f>
         <v>180</v>
       </c>
       <c r="C20">
@@ -4210,11 +6648,11 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f>'GM Style'!B18</f>
+        <f>'GM Style'!B19</f>
         <v>309</v>
       </c>
       <c r="B21">
-        <f>'GM Style'!C18</f>
+        <f>'GM Style'!C19</f>
         <v>181</v>
       </c>
       <c r="C21">
@@ -4236,11 +6674,11 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f>'GM Style'!B19</f>
+        <f>'GM Style'!B20</f>
         <v>307</v>
       </c>
       <c r="B22">
-        <f>'GM Style'!C19</f>
+        <f>'GM Style'!C20</f>
         <v>182</v>
       </c>
       <c r="C22">
@@ -4262,11 +6700,11 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f>'GM Style'!B20</f>
+        <f>'GM Style'!B21</f>
         <v>302</v>
       </c>
       <c r="B23">
-        <f>'GM Style'!C20</f>
+        <f>'GM Style'!C21</f>
         <v>183</v>
       </c>
       <c r="C23">
@@ -4288,11 +6726,11 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f>'GM Style'!B21</f>
+        <f>'GM Style'!B22</f>
         <v>294</v>
       </c>
       <c r="B24">
-        <f>'GM Style'!C21</f>
+        <f>'GM Style'!C22</f>
         <v>184</v>
       </c>
       <c r="C24">
@@ -4314,11 +6752,11 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f>'GM Style'!B22</f>
+        <f>'GM Style'!B23</f>
         <v>292</v>
       </c>
       <c r="B25">
-        <f>'GM Style'!C22</f>
+        <f>'GM Style'!C23</f>
         <v>185</v>
       </c>
       <c r="C25">
@@ -4340,11 +6778,11 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f>'GM Style'!B23</f>
+        <f>'GM Style'!B24</f>
         <v>290</v>
       </c>
       <c r="B26">
-        <f>'GM Style'!C23</f>
+        <f>'GM Style'!C24</f>
         <v>186</v>
       </c>
       <c r="C26">
@@ -4366,11 +6804,11 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f>'GM Style'!B24</f>
+        <f>'GM Style'!B25</f>
         <v>280</v>
       </c>
       <c r="B27">
-        <f>'GM Style'!C24</f>
+        <f>'GM Style'!C25</f>
         <v>187</v>
       </c>
       <c r="C27">
@@ -4392,11 +6830,11 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f>'GM Style'!B25</f>
+        <f>'GM Style'!B26</f>
         <v>274</v>
       </c>
       <c r="B28">
-        <f>'GM Style'!C25</f>
+        <f>'GM Style'!C26</f>
         <v>188</v>
       </c>
       <c r="C28">
@@ -4418,11 +6856,11 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f>'GM Style'!B26</f>
+        <f>'GM Style'!B27</f>
         <v>269</v>
       </c>
       <c r="B29">
-        <f>'GM Style'!C26</f>
+        <f>'GM Style'!C27</f>
         <v>189</v>
       </c>
       <c r="C29">
@@ -4444,11 +6882,11 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f>'GM Style'!B27</f>
+        <f>'GM Style'!B28</f>
         <v>253</v>
       </c>
       <c r="B30">
-        <f>'GM Style'!C27</f>
+        <f>'GM Style'!C28</f>
         <v>192</v>
       </c>
       <c r="C30">
@@ -4470,11 +6908,11 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f>'GM Style'!B28</f>
+        <f>'GM Style'!B29</f>
         <v>203</v>
       </c>
       <c r="B31">
-        <f>'GM Style'!C28</f>
+        <f>'GM Style'!C29</f>
         <v>206</v>
       </c>
       <c r="C31">
@@ -4496,11 +6934,11 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f>'GM Style'!B29</f>
+        <f>'GM Style'!B30</f>
         <v>216</v>
       </c>
       <c r="B32">
-        <f>'GM Style'!C29</f>
+        <f>'GM Style'!C30</f>
         <v>201</v>
       </c>
       <c r="C32">
@@ -4522,11 +6960,11 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f>'GM Style'!B30</f>
+        <f>'GM Style'!B31</f>
         <v>233</v>
       </c>
       <c r="B33">
-        <f>'GM Style'!C30</f>
+        <f>'GM Style'!C31</f>
         <v>197</v>
       </c>
       <c r="C33">
@@ -4548,11 +6986,11 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f>'GM Style'!B31</f>
+        <f>'GM Style'!B32</f>
         <v>238</v>
       </c>
       <c r="B34">
-        <f>'GM Style'!C31</f>
+        <f>'GM Style'!C32</f>
         <v>196</v>
       </c>
       <c r="C34">
@@ -4574,11 +7012,11 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f>'GM Style'!B32</f>
+        <f>'GM Style'!B33</f>
         <v>263</v>
       </c>
       <c r="B35">
-        <f>'GM Style'!C32</f>
+        <f>'GM Style'!C33</f>
         <v>190</v>
       </c>
       <c r="C35">
@@ -4600,11 +7038,11 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f>'GM Style'!B33</f>
+        <f>'GM Style'!B34</f>
         <v>240</v>
       </c>
       <c r="B36">
-        <f>'GM Style'!C33</f>
+        <f>'GM Style'!C34</f>
         <v>195</v>
       </c>
       <c r="C36">
@@ -4626,11 +7064,11 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f>'GM Style'!B34</f>
+        <f>'GM Style'!B35</f>
         <v>223</v>
       </c>
       <c r="B37">
-        <f>'GM Style'!C34</f>
+        <f>'GM Style'!C35</f>
         <v>200</v>
       </c>
       <c r="C37">
@@ -4652,11 +7090,11 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f>'GM Style'!B35</f>
+        <f>'GM Style'!B36</f>
         <v>204</v>
       </c>
       <c r="B38">
-        <f>'GM Style'!C35</f>
+        <f>'GM Style'!C36</f>
         <v>205</v>
       </c>
       <c r="C38">
@@ -4678,11 +7116,11 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f>'GM Style'!B36</f>
+        <f>'GM Style'!B37</f>
         <v>186</v>
       </c>
       <c r="B39">
-        <f>'GM Style'!C36</f>
+        <f>'GM Style'!C37</f>
         <v>210</v>
       </c>
       <c r="C39">
@@ -4704,11 +7142,11 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f>'GM Style'!B37</f>
+        <f>'GM Style'!B38</f>
         <v>210</v>
       </c>
       <c r="B40">
-        <f>'GM Style'!C37</f>
+        <f>'GM Style'!C38</f>
         <v>205</v>
       </c>
       <c r="C40">
@@ -4739,4 +7177,784 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="150" verticalDpi="150" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>150</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B8" si="0">945*POWER(A3, -0.287)</f>
+        <v>224.33323397870168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>206.55523186450495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>250</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>193.74166424712368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>300</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>183.86455221516911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>350</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>175.90746894529684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>400</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>169.29361976778398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>450</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ref="B9:B17" si="1">945*POWER(A9, -0.287)</f>
+        <v>163.66650825606132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>500</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>158.79156070830336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>550</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>154.50684223111611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>600</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>150.69623417676146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>650</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>147.2738618538684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>700</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>144.17457206541874</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>750</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>141.34785617210599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>800</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>138.75383080530958</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>850</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>136.3604974315551</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>900</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18:B60" si="2">945*POWER(A18, -0.287)</f>
+        <v>134.14182428261157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>950</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="2"/>
+        <v>132.07637290889306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1000</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="2"/>
+        <v>130.14629481047797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1050</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="2"/>
+        <v>128.33658530136299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1100</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="2"/>
+        <v>126.6345198041457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1150</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="2"/>
+        <v>125.02922187287641</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1200</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="2"/>
+        <v>123.51132788489602</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1250</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="2"/>
+        <v>122.07272371933453</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1300</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="2"/>
+        <v>120.70633576000174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1350</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="2"/>
+        <v>119.40596339494896</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1400</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="2"/>
+        <v>118.16614356898451</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1450</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="2"/>
+        <v>116.98204034959873</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1500</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="2"/>
+        <v>115.84935419834309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1550</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="2"/>
+        <v>114.76424690268611</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1600</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="2"/>
+        <v>113.72327905538816</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1650</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="2"/>
+        <v>112.7233576637055</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1700</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="2"/>
+        <v>111.76169199464638</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1750</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="2"/>
+        <v>110.83575616103153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1800</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="2"/>
+        <v>109.94325725893061</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1850</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="2"/>
+        <v>109.08210810367768</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1900</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="2"/>
+        <v>108.25040379617971</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1950</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="2"/>
+        <v>107.44640149616265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2000</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="2"/>
+        <v>106.66850289361844</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2050</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="2"/>
+        <v>105.9152389609591</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2100</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="2"/>
+        <v>105.18525664146236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2150</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="2"/>
+        <v>104.47730718846384</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2200</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="2"/>
+        <v>103.79023591744222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2250</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="2"/>
+        <v>103.12297317197724</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2300</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="2"/>
+        <v>102.47452633634293</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2350</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="2"/>
+        <v>101.84397275363129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2400</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="2"/>
+        <v>101.2304534298889</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2450</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="2"/>
+        <v>100.63316742265778</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2500</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="2"/>
+        <v>100.05136682722824</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2550</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="2"/>
+        <v>99.484352286389679</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2600</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="2"/>
+        <v>98.931468959938599</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2650</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="2"/>
+        <v>98.392102899026952</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2700</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="2"/>
+        <v>97.865677777896948</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2750</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="2"/>
+        <v>97.351651941876327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2800</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="2"/>
+        <v>96.849515735896034</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2850</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="2"/>
+        <v>96.358789082389222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2900</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="2"/>
+        <v>95.879019281369025</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2950</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="2"/>
+        <v>95.409779008863211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3000</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="2"/>
+        <v>94.950664492792782</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>162</v>
+      </c>
+      <c r="B3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>180</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>210</v>
+      </c>
+      <c r="B5">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>233</v>
+      </c>
+      <c r="B6">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>255</v>
+      </c>
+      <c r="B7">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>310</v>
+      </c>
+      <c r="B8">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>402</v>
+      </c>
+      <c r="B9">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>490</v>
+      </c>
+      <c r="B10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>600</v>
+      </c>
+      <c r="B11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>870</v>
+      </c>
+      <c r="B12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>206</v>
+      </c>
+      <c r="B13">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>229</v>
+      </c>
+      <c r="B14">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>241</v>
+      </c>
+      <c r="B15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>283</v>
+      </c>
+      <c r="B16">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>292</v>
+      </c>
+      <c r="B17">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>305</v>
+      </c>
+      <c r="B18">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>324</v>
+      </c>
+      <c r="B19">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>346</v>
+      </c>
+      <c r="B20">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>400</v>
+      </c>
+      <c r="B21">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>436</v>
+      </c>
+      <c r="B22">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>466</v>
+      </c>
+      <c r="B23">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>512</v>
+      </c>
+      <c r="B24">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>575</v>
+      </c>
+      <c r="B25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>630</v>
+      </c>
+      <c r="B26">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>710</v>
+      </c>
+      <c r="B27">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>